--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_27.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4512820512820513</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.78, 21.0)]</t>
+          <t>[['Eb', 'Ab/5', 'Eb', 'Ab/5']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.34, 26.4)]</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:17.016000', '0:00:24.727000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1064102564102564</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(28.8, 36.86), (84.0, 90.84)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82)]</t>
+          <t>[('0:00:08.460000', '0:00:13.460000'), ('0:00:00.240000', '0:00:05.080000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:11.700000', '0:00:20.020000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(51.28, 60.14)]</t>
+          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D7" t="inlineStr">
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1384615384615385</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[(37.36, 44.66)]</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[('0:01:14.500000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (30.24, 38.5)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3), (0.38, 3.7)]</t>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1319148936170213</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (30.24, 38.5)]</t>
+          <t>[('0:02:08.760000', '0:02:13.560000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:03.988594', '0:00:07.754783')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(20.08, 22.56)]</t>
+          <t>[('0:00:43.120000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:10.120000', '0:00:35.880000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:dim7', 'C#:maj', 'F#:maj/A#']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(17.52, 20.42)]</t>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(45.76, 55.48)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(25.26, 36.1)]</t>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.54, 138.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.44, 130.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
